--- a/ShanJul22/MarsProject1/Data/DataBook.xlsx
+++ b/ShanJul22/MarsProject1/Data/DataBook.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5F88B5-75C4-4898-9620-3D0B2A4384EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVP Project\MarsProject\ShanJul22\MarsProject1\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1502768F-8C71-4400-8974-6870CF78A77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +434,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>44772</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -499,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>44772</v>
+        <v>44803</v>
       </c>
     </row>
   </sheetData>
